--- a/diaries/diary-bingfei-zhang.xlsx
+++ b/diaries/diary-bingfei-zhang.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bingfeizhang/JAVA/265P/W2020/diaries/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bingfeizhang/JAVA/W2020/diaries/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16060"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="183">
   <si>
     <t>SWE 265P Diary</t>
   </si>
@@ -297,13 +297,304 @@
   </si>
   <si>
     <t>Finally we found how to access the issues of telegram, but they are selecting helpers. We need to be better,  so that we can make some contribution. Also, talk with Kaj helped me understand how to write a report to help others understand the code.</t>
+  </si>
+  <si>
+    <t>20:00-2:00</t>
+  </si>
+  <si>
+    <t>6:00-20:00</t>
+  </si>
+  <si>
+    <t>10:00-16:00</t>
+  </si>
+  <si>
+    <t>8:00-17:00</t>
+  </si>
+  <si>
+    <t>17:00-20:00</t>
+  </si>
+  <si>
+    <t>10:00-17:00</t>
+  </si>
+  <si>
+    <t>14:00-17:00</t>
+  </si>
+  <si>
+    <t>19:00-22:00</t>
+  </si>
+  <si>
+    <t>20:00-23:00</t>
+  </si>
+  <si>
+    <t>12:00-20:00</t>
+  </si>
+  <si>
+    <t>13:00-18:00</t>
+  </si>
+  <si>
+    <t>21:00-4:00</t>
+  </si>
+  <si>
+    <t>18:00-20:00</t>
+  </si>
+  <si>
+    <t>Assigned each one's work. Look through Telegram's web site and find out that most information can be found on the website.</t>
+  </si>
+  <si>
+    <t>Prepare for the final of Test</t>
+  </si>
+  <si>
+    <t>The last lecture Learned about the last 3 KEP and the inportance of history. Discuss about the last homework. Discuss about what method to test and how. Trying to find out how secret chat and self-destruct message work</t>
+  </si>
+  <si>
+    <t>17:00-24:00</t>
+  </si>
+  <si>
+    <t>Trying to find out how secret chat and self-destruct message work</t>
+  </si>
+  <si>
+    <t>14:00-20:00</t>
+  </si>
+  <si>
+    <t>Learn design patterns and KEPs. Read online resources about design patterns</t>
+  </si>
+  <si>
+    <t>Talked with Kaj about homework 3. Learn the difference between functional feature and non functional feature</t>
+  </si>
+  <si>
+    <t>Rewrite homework 3.  Rewrite functional and nonfunctional features. Add citation to the stakeholder part and graphs</t>
+  </si>
+  <si>
+    <t>Made pull request to Telegram repo. Though we know there will be no response. Learn KEPs and test in software engineering</t>
+  </si>
+  <si>
+    <t>Learn patterns and trying to find out pattern in the Telegram.</t>
+  </si>
+  <si>
+    <t>Learn some software structure like MVC, MVVM, MVP, etc.</t>
+  </si>
+  <si>
+    <t>Talked about the software architecture of telegram structure. Learned software architecture together.</t>
+  </si>
+  <si>
+    <t>Discuss homework. Talked about design patterns and trying to find out some implementation. Talked about which issue to solve.</t>
+  </si>
+  <si>
+    <t>Analyze the architecture structure. Find out the social context of telegram.</t>
+  </si>
+  <si>
+    <t>Discuss homework. Including find out the architecture Telegram and the difference between social context and the things we learned last week</t>
+  </si>
+  <si>
+    <t>Learn software architecture and social context. Learn KEPs.</t>
+  </si>
+  <si>
+    <t>Play with the app. Trying to find out 5 new issues of the Telegram</t>
+  </si>
+  <si>
+    <t>Learn patterns and trying to find out pattern in the Telegram. Trying to locate the code to set the notification order.</t>
+  </si>
+  <si>
+    <t>Modify the code to reverse the order of the notification. Test with different working conditions.</t>
+  </si>
+  <si>
+    <t>Worked together to finish the Android project. Finish recyclerView part and Restful Call part.</t>
+  </si>
+  <si>
+    <t>Worked together to finish the Android project and prepare for the presentation. Update the app UI. Fix bugs on Firebase.</t>
+  </si>
+  <si>
+    <t>Learned about software architecture again. But in a different way. In the software achittecture class, we learn about the feature of the software, but in this class, we learn to ffigure out what architecture the software is. This help us understand the code easier. This is a higher level of application of software architecture using.</t>
+  </si>
+  <si>
+    <t>The knowledges are not restricted in one area or specification. They are interactive. Knoweledge in one area may help the work in another area.Thus it is an important ability to integrate knowledges. We should practice this skill for a better understanding.</t>
+  </si>
+  <si>
+    <t>Happy to see the pure knowledge learned from another class can be used in practice in this class.</t>
+  </si>
+  <si>
+    <t>Read through the spec or introducation can be very helpful for understanding the code. If you know what the developer want, you can find out it in the code. Otherwise the code is difficult to read and each method pooints to nothing.</t>
+  </si>
+  <si>
+    <t>Glad to know that software engineering is not just about coding. It is more an engineering, including the interaction between decveloper and user. The practice is more important than theroy.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tried to find out which architecture Telegram belongs to. As Telegram is not a tratitional Android application, simply MVC/MVVM is not good enough to describe it. The view is write with some logic and data procession and some class are pure controller, thus in my opinion, it is an integeration of multiple software architecture. </t>
+  </si>
+  <si>
+    <t>Though architecture is a predifined attribute and it is well disigned, however, in development, developers usually break the architecture for some conventient or better performance. Thus we should not restrict our development on the pre-design archtecture. However, the as-built architecture should be document down in a approporate way, otherwise others will waste a lot of time on figuring out the architecture of the application.</t>
+  </si>
+  <si>
+    <t>Felt very anoying with the developer. Why make it open open source and do not want others help?</t>
+  </si>
+  <si>
+    <t>Deceided to describe the architecture as a combination of MVC and MVVM, while more detail still need to bu discussed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Architecture with different name are arctually very similar. Need to go very deep to understand what the real difference are and what an architecture an application is </t>
+  </si>
+  <si>
+    <t>Still confuse.Why no documentation? Felt very tired working on this project…</t>
+  </si>
+  <si>
+    <t>Draw diagram of architectur of Telegram. Draw different diagrams to clearfy our mind roud. Retrieve social context information from their website.</t>
+  </si>
+  <si>
+    <t>There are a lot of information in their website. Maybe it is just an industial work, not an open sorce project. The diagram can help us understand the architecture a lot in a higehr level.</t>
+  </si>
+  <si>
+    <t>Tired. Tired. Tired.</t>
+  </si>
+  <si>
+    <t>Worked with different function of the application to find out what could be improved. Found some small issues and documented them.</t>
+  </si>
+  <si>
+    <t>Seems like we are doing a black box test work. Actuall some issus we found may not be real issue. As users have their own preference, some settings may not satisfy all the user. Maybe that the importance of the social investigation.</t>
+  </si>
+  <si>
+    <t>When working to find out issues, I felt like being god. It feels really good to point out issues.</t>
+  </si>
+  <si>
+    <t>Learned design patterns, they are very important and can help a lot when develping. Also is help a lot when reading code.</t>
+  </si>
+  <si>
+    <t>Just like architecture, design pattern is more an engineering work rather than science work. Thus it is very important in the real industarial application. As they are designed and modified by many masters, we should learn and use it well</t>
+  </si>
+  <si>
+    <t>Pre-defined patterns help us when working on our work, but will it restrict out creation?</t>
+  </si>
+  <si>
+    <t>Find five patterns in the code. Read through the issue in the privious homework and decide to reverse the order of notification.</t>
+  </si>
+  <si>
+    <t>The name of the class and methods in the code is very confusing. The class is not an factory but named as a factory. That makes us many useless work. Bad naming is really really a bad practice</t>
+  </si>
+  <si>
+    <t>Thinks the code of Telegram is piece of sh**.</t>
+  </si>
+  <si>
+    <t>Find out five new patterns which are more typical. Analized them and figuring out why they are used.</t>
+  </si>
+  <si>
+    <t>Find out the difference between the functional and nonfunctional. Functional is like what the app should do, and nonfunctional is like the propoeity of the application</t>
+  </si>
+  <si>
+    <t>Sometime English is the bottle neck of learning, need to practice more. Also, as a Master student , our work should be more formal, writing like a thesis and add citation is very important.</t>
+  </si>
+  <si>
+    <t>It is important to be strict to ourselves. It could make us better.</t>
+  </si>
+  <si>
+    <t>Modified the code and made pull request. Learned something leared again.</t>
+  </si>
+  <si>
+    <t>Made the pull request though we know we won't get a response. However it is very exciting. It gives more knowleged about how open sorce project work. It is a good experience.</t>
+  </si>
+  <si>
+    <t>Very excited</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Look up DrKLO in google. Found out that he has 2 gold of ACM and 2 gold of  math Olympic. </t>
+  </si>
+  <si>
+    <t>It is myself a piece of sh**, not Telegram</t>
+  </si>
+  <si>
+    <t>Have a better understanding of the functional of telegram.Maybe the differece between genius and normal people is really big</t>
+  </si>
+  <si>
+    <t>Using restful call to get information form National Park Service API and using recycler view to display them in the application</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Android is really a good framework, help the developer focus on the main function, not the </t>
+  </si>
+  <si>
+    <t>A day away from Telegram makes me feel good.</t>
+  </si>
+  <si>
+    <t>Another day away from Telegram makes me feel better.</t>
+  </si>
+  <si>
+    <t>One more day away from Telegram makes me feel even more better.</t>
+  </si>
+  <si>
+    <t>Prepare for the final of Test. Revice different kinds of test and test tools</t>
+  </si>
+  <si>
+    <t>With the revise of the Test class, I would be more comfort wiriting testcass for telegram.</t>
+  </si>
+  <si>
+    <t>Though I don't like Telegram, it is a little miss of it when saying goodbye</t>
+  </si>
+  <si>
+    <t>Really hard to find it out with too may logic and no documention</t>
+  </si>
+  <si>
+    <t>Tried but failed, but will never give up</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Feel that I'm still too weak and too idot </t>
+  </si>
+  <si>
+    <t>Find out the place to update the seft-destruct time</t>
+  </si>
+  <si>
+    <t>It is really to debug a multi-thread application. Maybe there is a better way? But I don’t know.</t>
+  </si>
+  <si>
+    <t>Find out the place update the database and the attribute in the message send out. But still can not figure out how the message self-destruct.</t>
+  </si>
+  <si>
+    <t>Guess the view is updated based on the databse. There should be handler or thread monitor the timer, and updated the database and view when time out. Need to check it in the future.</t>
+  </si>
+  <si>
+    <t>Find out the secretChatHelper and ChatActivity are related to the self-destruct secret messgae</t>
+  </si>
+  <si>
+    <t>Talked about the test case. Found out some test case could be writen which do not have much dependencies and network requirements.</t>
+  </si>
+  <si>
+    <t>The code is too long in one class. Even with an IDE, it is not easy to read. It is not a good practice, I should be aware of that in the future.</t>
+  </si>
+  <si>
+    <t>I feel I learnt a lot in this courese this term. Also I practice a lot. Not just read code, but also other aspects, like writing, coding and communication. It is really a good course and shoule be opend to the following MSWE students</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modified code only two line, but takes us hours to find out where to change. </t>
+  </si>
+  <si>
+    <t>This practice teached us how important reading code is. Without this class, it may takes us weeks to locate the code or even we may never made it.</t>
+  </si>
+  <si>
+    <t>Fix some bugs in our application. When finding bugs, reading code is also useful. It helped us find out where the bug is.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This course is really use in the practice. The knowledge I learned in this class can be used in other classes and may be some theroy can even be used in other subjects and in the real daily life. </t>
+  </si>
+  <si>
+    <t>Started to notice the importance of this course.</t>
+  </si>
+  <si>
+    <t>Still confused with some pattern, but understand the importance of patterns and the way they simplify and formalize the code. They are really helpful.</t>
+  </si>
+  <si>
+    <t>Grateful to previous developers' work.</t>
+  </si>
+  <si>
+    <t>Class not a pattern but with a pattern name is really disgusting. Should avoid that.</t>
+  </si>
+  <si>
+    <t>Find out patterns and write them. Locate the code with the notification. The notificaiton is poped form the storage.</t>
+  </si>
+  <si>
+    <t>The names used for some classees and methods are a little wield. It is sometimes a little hard for me not a native  English spearer to read. Maybe the developer's mother language is not English?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -394,8 +685,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -425,6 +724,12 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -435,12 +740,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -481,38 +788,52 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="8" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="8" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="8" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -827,10 +1148,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G125"/>
+  <dimension ref="A1:G119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1279,194 +1600,488 @@
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" s="12"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="2"/>
-    </row>
-    <row r="26" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" s="12"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="2"/>
-    </row>
-    <row r="27" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A27" s="12"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="2"/>
-    </row>
-    <row r="28" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A28" s="12"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="2"/>
-    </row>
-    <row r="29" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A29" s="12"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="2"/>
-    </row>
-    <row r="30" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A30" s="12"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="2"/>
-    </row>
-    <row r="31" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A31" s="12"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="2"/>
-    </row>
-    <row r="32" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A32" s="12"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="2"/>
-    </row>
-    <row r="33" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A33" s="12"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="2"/>
-    </row>
-    <row r="34" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A34" s="12"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="2"/>
-    </row>
-    <row r="35" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A35" s="12"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="2"/>
-    </row>
-    <row r="36" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A36" s="12"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="2"/>
-    </row>
-    <row r="37" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A37" s="12"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="2"/>
-    </row>
-    <row r="38" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A38" s="12"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="2"/>
-    </row>
-    <row r="39" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A39" s="12"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="2"/>
-    </row>
-    <row r="40" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A40" s="12"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="2"/>
-    </row>
-    <row r="41" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A41" s="12"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="2"/>
-    </row>
-    <row r="42" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A42" s="12"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="2"/>
-    </row>
-    <row r="43" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A43" s="12"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="2"/>
-    </row>
-    <row r="44" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A44" s="12"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="2"/>
-    </row>
-    <row r="45" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A45" s="12"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="2"/>
+    <row r="25" spans="1:7" ht="144" x14ac:dyDescent="0.2">
+      <c r="A25" s="24">
+        <v>43881</v>
+      </c>
+      <c r="B25" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="D25" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="E25" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="F25" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="G25" s="26" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="96" x14ac:dyDescent="0.2">
+      <c r="A26" s="24">
+        <v>43883</v>
+      </c>
+      <c r="B26" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="C26" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="D26" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="E26" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="F26" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="G26" s="26" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="192" x14ac:dyDescent="0.2">
+      <c r="A27" s="24">
+        <v>43884</v>
+      </c>
+      <c r="B27" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="D27" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="E27" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="F27" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="G27" s="26" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="80" x14ac:dyDescent="0.2">
+      <c r="A28" s="24">
+        <v>43885</v>
+      </c>
+      <c r="B28" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="D28" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="E28" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="F28" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="G28" s="26" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="80" x14ac:dyDescent="0.2">
+      <c r="A29" s="24">
+        <v>43886</v>
+      </c>
+      <c r="B29" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="D29" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="E29" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="F29" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="G29" s="26" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="96" x14ac:dyDescent="0.2">
+      <c r="A30" s="24">
+        <v>43887</v>
+      </c>
+      <c r="B30" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="C30" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="D30" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="E30" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="F30" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G30" s="26" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="96" x14ac:dyDescent="0.2">
+      <c r="A31" s="24">
+        <v>43888</v>
+      </c>
+      <c r="B31" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="C31" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="D31" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="E31" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="F31" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="G31" s="26" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="80" x14ac:dyDescent="0.2">
+      <c r="A32" s="24">
+        <v>43890</v>
+      </c>
+      <c r="B32" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="C32" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="D32" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="E32" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="F32" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="G32" s="26" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="75" x14ac:dyDescent="0.2">
+      <c r="A33" s="24">
+        <v>43891</v>
+      </c>
+      <c r="B33" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="C33" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="D33" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="E33" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="F33" s="25" t="s">
+        <v>180</v>
+      </c>
+      <c r="G33" s="26" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="64" x14ac:dyDescent="0.2">
+      <c r="A34" s="24">
+        <v>43892</v>
+      </c>
+      <c r="B34" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D34" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="E34" s="25" t="s">
+        <v>181</v>
+      </c>
+      <c r="F34" s="25" t="s">
+        <v>178</v>
+      </c>
+      <c r="G34" s="26" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="64" x14ac:dyDescent="0.2">
+      <c r="A35" s="24">
+        <v>43893</v>
+      </c>
+      <c r="B35" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="C35" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="D35" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="E35" s="25" t="s">
+        <v>173</v>
+      </c>
+      <c r="F35" s="25" t="s">
+        <v>174</v>
+      </c>
+      <c r="G35" s="26" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="80" x14ac:dyDescent="0.2">
+      <c r="A36" s="24">
+        <v>43894</v>
+      </c>
+      <c r="B36" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="C36" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="D36" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="E36" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="F36" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="G36" s="26" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="80" x14ac:dyDescent="0.2">
+      <c r="A37" s="24">
+        <v>43895</v>
+      </c>
+      <c r="B37" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="C37" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="D37" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="E37" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="F37" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="G37" s="26" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="64" x14ac:dyDescent="0.2">
+      <c r="A38" s="24">
+        <v>43896</v>
+      </c>
+      <c r="B38" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="C38" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="D38" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="E38" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="F38" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="G38" s="26" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="64" x14ac:dyDescent="0.2">
+      <c r="A39" s="24">
+        <v>43899</v>
+      </c>
+      <c r="B39" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D39" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="E39" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="F39" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="G39" s="26" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="80" x14ac:dyDescent="0.2">
+      <c r="A40" s="24">
+        <v>43900</v>
+      </c>
+      <c r="B40" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="C40" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D40" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="E40" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="F40" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="G40" s="26" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="A41" s="24">
+        <v>43901</v>
+      </c>
+      <c r="B41" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="C41" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="D41" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="E41" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="F41" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="G41" s="26" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="96" x14ac:dyDescent="0.2">
+      <c r="A42" s="24">
+        <v>43902</v>
+      </c>
+      <c r="B42" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="C42" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="D42" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="E42" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="F42" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="G42" s="26" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="64" x14ac:dyDescent="0.2">
+      <c r="A43" s="24">
+        <v>43904</v>
+      </c>
+      <c r="B43" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="C43" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="D43" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="E43" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="F43" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="G43" s="26" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="A44" s="24">
+        <v>43905</v>
+      </c>
+      <c r="B44" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="C44" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="D44" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="E44" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="F44" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="G44" s="26" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="80" x14ac:dyDescent="0.2">
+      <c r="A45" s="24">
+        <v>43906</v>
+      </c>
+      <c r="B45" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="C45" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="D45" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="E45" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="F45" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="G45" s="26" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="46" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="12"/>
@@ -2133,60 +2748,6 @@
       <c r="E119" s="1"/>
       <c r="F119" s="1"/>
       <c r="G119" s="2"/>
-    </row>
-    <row r="120" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A120" s="12"/>
-      <c r="B120" s="1"/>
-      <c r="C120" s="1"/>
-      <c r="D120" s="1"/>
-      <c r="E120" s="1"/>
-      <c r="F120" s="1"/>
-      <c r="G120" s="2"/>
-    </row>
-    <row r="121" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A121" s="12"/>
-      <c r="B121" s="1"/>
-      <c r="C121" s="1"/>
-      <c r="D121" s="1"/>
-      <c r="E121" s="1"/>
-      <c r="F121" s="1"/>
-      <c r="G121" s="2"/>
-    </row>
-    <row r="122" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A122" s="12"/>
-      <c r="B122" s="1"/>
-      <c r="C122" s="1"/>
-      <c r="D122" s="1"/>
-      <c r="E122" s="1"/>
-      <c r="F122" s="1"/>
-      <c r="G122" s="2"/>
-    </row>
-    <row r="123" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A123" s="12"/>
-      <c r="B123" s="1"/>
-      <c r="C123" s="1"/>
-      <c r="D123" s="1"/>
-      <c r="E123" s="1"/>
-      <c r="F123" s="1"/>
-      <c r="G123" s="2"/>
-    </row>
-    <row r="124" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A124" s="12"/>
-      <c r="B124" s="1"/>
-      <c r="C124" s="1"/>
-      <c r="D124" s="1"/>
-      <c r="E124" s="1"/>
-      <c r="F124" s="1"/>
-      <c r="G124" s="2"/>
-    </row>
-    <row r="125" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A125" s="12"/>
-      <c r="B125" s="1"/>
-      <c r="C125" s="1"/>
-      <c r="D125" s="1"/>
-      <c r="E125" s="1"/>
-      <c r="F125" s="1"/>
-      <c r="G125" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
